--- a/0_evaluate/input_files/Mattiolo_2015_tester.xlsx
+++ b/0_evaluate/input_files/Mattiolo_2015_tester.xlsx
@@ -1,151 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_user\Desktop\Study\VII_semester\TDK\BCRN\0_evaluate\input_files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C51926-E498-488D-AC58-876AC15B9927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Casp" sheetId="1" r:id="rId1"/>
     <sheet name="cyt" sheetId="2" r:id="rId2"/>
     <sheet name="BibTex" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>casp</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>903977</t>
-  </si>
-  <si>
-    <t>0.1875</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5.791666508</t>
-  </si>
-  <si>
-    <t>1.520833015</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>4.041666031</t>
-  </si>
-  <si>
-    <t>0.541666985</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3.979166031</t>
-  </si>
-  <si>
-    <t>1.166666031</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7.145833015</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>7.520833015</t>
-  </si>
-  <si>
-    <t>0.583333492</t>
-  </si>
-  <si>
-    <t>cytc</t>
-  </si>
-  <si>
-    <t>0.066406314</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>0.441406336</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>BibTex</t>
-  </si>
-  <si>
-    <t>@article{mattiolo2015autophagy,</t>
-  </si>
-  <si>
-    <t>title={Autophagy exacerbates caspase-dependent apoptotic cell death after short times of starvation},</t>
-  </si>
-  <si>
-    <t>author={Mattiolo, Paolo and Yuste, Victor J and Boix, Jacint and Ribas, Judit},</t>
-  </si>
-  <si>
-    <t>journal={Biochemical Pharmacology},</t>
-  </si>
-  <si>
-    <t>volume={98},</t>
-  </si>
-  <si>
-    <t>number={4},</t>
-  </si>
-  <si>
-    <t>pages={573--586},</t>
-  </si>
-  <si>
-    <t>year={2015},</t>
-  </si>
-  <si>
-    <t>publisher={Elsevier}</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>casp_std</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,21 +67,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -514,228 +398,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>time</v>
+      </c>
+      <c r="B1" t="str">
+        <v>casp</v>
+      </c>
+      <c r="C1" t="str">
+        <v>casp_std</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="str">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="str">
+        <v>1.4375</v>
+      </c>
+      <c r="C3" t="str">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="str">
+        <v>5.791666508</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1.520833015</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="str">
+        <v>4.041666031</v>
+      </c>
+      <c r="C5" t="str">
+        <v>0.541666985</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
+      <c r="B6" t="str">
+        <v>3.979166031</v>
+      </c>
+      <c r="C6" t="str">
+        <v>1.166666031</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+      <c r="B7" t="str">
+        <v>7.145833015</v>
+      </c>
+      <c r="C7" t="str">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>24</v>
+      </c>
+      <c r="B8" t="str">
+        <v>7.520833015</v>
+      </c>
+      <c r="C8" t="str">
+        <v>0.583333492</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:C8 A1:B1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C8"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>time</v>
+      </c>
+      <c r="B1" t="str">
+        <v>cytc</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="str">
+        <v>0.066406314</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>8</v>
+      </c>
+      <c r="B3" t="str">
+        <v>0.441406336</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" t="str">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B4 A1:B1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B4"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>37</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>BibTex</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>@article{mattiolo2015autophagy,</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>title={Autophagy exacerbates caspase-dependent apoptotic cell death after short times of starvation},</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>author={Mattiolo, Paolo and Yuste, Victor J and Boix, Jacint and Ribas, Judit},</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>journal={Biochemical Pharmacology},</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>volume={98},</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>number={4},</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>pages={573--586},</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>year={2015},</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>publisher={Elsevier}</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>}</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:A11" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
   </ignoredErrors>
 </worksheet>
 </file>